--- a/PlantillaJuego.xlsx
+++ b/PlantillaJuego.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanz\Desktop\Plataforma\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="235">
   <si>
     <t>Tabla 3. Plantilla del Documento de Diseño</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>LOGROS</t>
-  </si>
-  <si>
-    <t>CÓDIGOS SECRETOS</t>
   </si>
   <si>
     <t>MÚSICA Y SONIDOS</t>
@@ -709,19 +706,6 @@
     <t>Se manejara checkpoint a mitad de cada nivel y al finalizar se guardara la partida automaticamente. El medio de almacenaje sera en la carpeta en donde se encuentra el juego.</t>
   </si>
   <si>
-    <t>* Menu Principal.
-* Menu de pausa.
-* Menu selección niveles.
-* Menu equipamiento.
-* Pantalla de juego.</t>
-  </si>
-  <si>
-    <t>El juego va a contener 5 interfaces principales contenidad en una unica ventana.</t>
-  </si>
-  <si>
-    <t>??????????????????????????????????????????????????????????????????????????????????</t>
-  </si>
-  <si>
     <t>Menu principal.</t>
   </si>
   <si>
@@ -738,24 +722,6 @@
   </si>
   <si>
     <t>lo invoca las teclas escape y p. Esta pantalla invoca el menu principal, equipamiento y pantalla de juego.</t>
-  </si>
-  <si>
-    <t>Menu equipamiento</t>
-  </si>
-  <si>
-    <t>Aquí se puede escoger diferentes equipos que ayuden a Jace.</t>
-  </si>
-  <si>
-    <t>Lo invoca menu de pausa y el invoca a la pantalla de juego.</t>
-  </si>
-  <si>
-    <t>Menu selección de niveles.</t>
-  </si>
-  <si>
-    <t>Se escoge desde aquí que nivel jugar.</t>
-  </si>
-  <si>
-    <t>lo invoca el menu principal y el invoca la pantalla de juego.</t>
   </si>
   <si>
     <t>Pantalla de juego</t>
@@ -788,16 +754,36 @@
 * Asador: eliminar 100 enemigos en fuego.</t>
   </si>
   <si>
-    <t>Con la tecla L presionada por varios segundos se completa el nivel.</t>
-  </si>
-  <si>
-    <t>?????????????????????????????????????????????????????????????????????????????????????????????????????????????</t>
-  </si>
-  <si>
     <t>Computador de escritorio o Laptop con sistema operativo LINUX</t>
   </si>
   <si>
     <t>El juego funciona en maquinas con SO Linux y lenguaje Python y librería PyGame previamente instalados.</t>
+  </si>
+  <si>
+    <t>El juego va a contener 3 interfaces principales contenidad en una unica ventana.</t>
+  </si>
+  <si>
+    <t>* Menu Principal.
+* Menu de pausa.
+* Pantalla de juego.</t>
+  </si>
+  <si>
+    <t>01-elemental-travel-full-sound-version-</t>
+  </si>
+  <si>
+    <t>Mega Man , Goomba, Sprites varios.</t>
+  </si>
+  <si>
+    <t>Links de Consulta:</t>
+  </si>
+  <si>
+    <t>www.programaradegames.com</t>
+  </si>
+  <si>
+    <t>www.pygame.org</t>
+  </si>
+  <si>
+    <t>www.nullege.com</t>
   </si>
 </sst>
 </file>
@@ -973,7 +959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1017,32 +1003,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1056,11 +1039,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1071,11 +1051,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2119,6 +2108,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2223336A-1FDF-48FC-A750-61D73C22C206}" type="pres">
       <dgm:prSet presAssocID="{0D031844-B473-422E-87D0-673E06F8965F}" presName="root1" presStyleCnt="0"/>
@@ -2146,10 +2142,24 @@
     <dgm:pt modelId="{5A6B521B-0B51-4CB8-9C53-62987733920F}" type="pres">
       <dgm:prSet presAssocID="{E761A0BE-C51B-45CD-84D9-5EBB738C89BC}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3C94D170-C554-4CCD-A964-14ADEB92B718}" type="pres">
       <dgm:prSet presAssocID="{E761A0BE-C51B-45CD-84D9-5EBB738C89BC}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DD2229CA-29F6-4930-8B21-A9ECD5DA6DAB}" type="pres">
       <dgm:prSet presAssocID="{5EBEDAB9-375A-4C4F-91BF-9C9E94AA8F96}" presName="root2" presStyleCnt="0"/>
@@ -2177,10 +2187,24 @@
     <dgm:pt modelId="{64D1D5D8-0A0F-4DC3-BE50-5B282209B512}" type="pres">
       <dgm:prSet presAssocID="{7ABF3DC3-4566-4B26-ADF4-DB83AE5DE716}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{077CF7F6-64D2-46B7-BDBE-F0183280E50D}" type="pres">
       <dgm:prSet presAssocID="{7ABF3DC3-4566-4B26-ADF4-DB83AE5DE716}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{188C1235-3EFD-4504-8DDB-E9C67A0CFB39}" type="pres">
       <dgm:prSet presAssocID="{59B15B56-9035-46AC-B2A4-2814CC3486E0}" presName="root2" presStyleCnt="0"/>
@@ -2208,10 +2232,24 @@
     <dgm:pt modelId="{4573AA88-D256-46EE-9BDC-293FF653E0A1}" type="pres">
       <dgm:prSet presAssocID="{D87E4642-7941-4D6C-9AE1-D163642DF16F}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E0A2DD86-C226-4015-BF23-7979D1094FC9}" type="pres">
       <dgm:prSet presAssocID="{D87E4642-7941-4D6C-9AE1-D163642DF16F}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0ACBB9F8-1E1F-4AB0-B5F5-F942108DF3E3}" type="pres">
       <dgm:prSet presAssocID="{73031B6C-ACD1-4AD0-AE3D-1A2D56308F70}" presName="root2" presStyleCnt="0"/>
@@ -2239,10 +2277,24 @@
     <dgm:pt modelId="{3B31711F-1156-4592-AAFD-F1097D8A4356}" type="pres">
       <dgm:prSet presAssocID="{BBDA34DD-83E9-4C49-811A-E62F99173A48}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{97334260-A611-47E3-8D01-8A7C6C38B94D}" type="pres">
       <dgm:prSet presAssocID="{BBDA34DD-83E9-4C49-811A-E62F99173A48}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9C3C5C00-E449-4160-9DEA-B6214296FEDF}" type="pres">
       <dgm:prSet presAssocID="{2DB7EABE-6A61-4F23-912E-4D57F4BFD24D}" presName="root2" presStyleCnt="0"/>
@@ -2270,10 +2322,24 @@
     <dgm:pt modelId="{ABC9673B-9A2D-4453-A6DC-80A2B01FC054}" type="pres">
       <dgm:prSet presAssocID="{FB3FF054-1020-4E7C-B123-6D799AE5BDEC}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A114F0F6-50A6-47DB-A71D-96B80FC03837}" type="pres">
       <dgm:prSet presAssocID="{FB3FF054-1020-4E7C-B123-6D799AE5BDEC}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3E379FD8-743C-4343-A4C5-FB17D6D32E9E}" type="pres">
       <dgm:prSet presAssocID="{062D0B72-55BA-4EE6-A882-94DBE663FC5B}" presName="root2" presStyleCnt="0"/>
@@ -2286,6 +2352,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5D3210E0-B677-4722-8814-A3C702D38AAA}" type="pres">
       <dgm:prSet presAssocID="{062D0B72-55BA-4EE6-A882-94DBE663FC5B}" presName="level3hierChild" presStyleCnt="0"/>
@@ -2294,10 +2367,24 @@
     <dgm:pt modelId="{CE949C3C-A1AF-4E46-88A4-4DF95E29122B}" type="pres">
       <dgm:prSet presAssocID="{237FFECA-33D1-441B-A0A8-005D4B4F0C56}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7E5F4A25-6D6D-4C93-B5FA-D71C042944BB}" type="pres">
       <dgm:prSet presAssocID="{237FFECA-33D1-441B-A0A8-005D4B4F0C56}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D6E670D3-D278-40C1-8EE6-B0CA60F52C2A}" type="pres">
       <dgm:prSet presAssocID="{27C3F515-112D-4C1E-A365-7CABC5818A95}" presName="root2" presStyleCnt="0"/>
@@ -2324,33 +2411,33 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{775790CF-07B0-430B-A3EA-4B47A2BFF185}" type="presOf" srcId="{E761A0BE-C51B-45CD-84D9-5EBB738C89BC}" destId="{5A6B521B-0B51-4CB8-9C53-62987733920F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{682FA5E4-EE5B-41D1-ACC3-640F51A008AB}" type="presOf" srcId="{27C3F515-112D-4C1E-A365-7CABC5818A95}" destId="{FEE174EF-11A3-466F-BD8C-65CC034A1150}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{CE8865D1-1F09-4B55-9D5A-F2D4EC3F9371}" type="presOf" srcId="{FB3FF054-1020-4E7C-B123-6D799AE5BDEC}" destId="{ABC9673B-9A2D-4453-A6DC-80A2B01FC054}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6660B599-2FEA-470D-85E7-CF0A5ECE39FD}" type="presOf" srcId="{237FFECA-33D1-441B-A0A8-005D4B4F0C56}" destId="{7E5F4A25-6D6D-4C93-B5FA-D71C042944BB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8DFB0BC1-5E80-4E8C-85C4-DF5B319E3D1D}" srcId="{73031B6C-ACD1-4AD0-AE3D-1A2D56308F70}" destId="{2DB7EABE-6A61-4F23-912E-4D57F4BFD24D}" srcOrd="0" destOrd="0" parTransId="{BBDA34DD-83E9-4C49-811A-E62F99173A48}" sibTransId="{833FE662-47DD-4731-B5B4-B3947256D1D1}"/>
+    <dgm:cxn modelId="{24FA9B19-28F1-42C4-89C7-4777034E1CAD}" type="presOf" srcId="{7ABF3DC3-4566-4B26-ADF4-DB83AE5DE716}" destId="{077CF7F6-64D2-46B7-BDBE-F0183280E50D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{AA807BAC-E75D-460F-B019-289607016023}" type="presOf" srcId="{D87E4642-7941-4D6C-9AE1-D163642DF16F}" destId="{E0A2DD86-C226-4015-BF23-7979D1094FC9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B03DACC1-3E68-4DE2-B563-B059677C6C61}" type="presOf" srcId="{BBDA34DD-83E9-4C49-811A-E62F99173A48}" destId="{3B31711F-1156-4592-AAFD-F1097D8A4356}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A901170F-B8D3-4B40-A2AE-5412A6083B8A}" srcId="{0D031844-B473-422E-87D0-673E06F8965F}" destId="{59B15B56-9035-46AC-B2A4-2814CC3486E0}" srcOrd="1" destOrd="0" parTransId="{7ABF3DC3-4566-4B26-ADF4-DB83AE5DE716}" sibTransId="{DE6251E7-1517-4670-A003-45472D4862A5}"/>
+    <dgm:cxn modelId="{93849FA5-DA6B-4488-BBF0-D5308F553883}" srcId="{0D031844-B473-422E-87D0-673E06F8965F}" destId="{062D0B72-55BA-4EE6-A882-94DBE663FC5B}" srcOrd="2" destOrd="0" parTransId="{FB3FF054-1020-4E7C-B123-6D799AE5BDEC}" sibTransId="{3249F69A-E34A-47CB-8F54-F5563F9168FF}"/>
+    <dgm:cxn modelId="{61B19E3E-F37A-4DD3-B0E8-E43FCC33107D}" type="presOf" srcId="{7ABF3DC3-4566-4B26-ADF4-DB83AE5DE716}" destId="{64D1D5D8-0A0F-4DC3-BE50-5B282209B512}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BE1735D6-33F0-4EF5-9C67-529536EDE80D}" type="presOf" srcId="{73031B6C-ACD1-4AD0-AE3D-1A2D56308F70}" destId="{CDA5F70B-4777-4FC4-910A-495B0149CF12}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B5362B98-DB2B-44D2-AB5F-355DB696890F}" srcId="{062D0B72-55BA-4EE6-A882-94DBE663FC5B}" destId="{27C3F515-112D-4C1E-A365-7CABC5818A95}" srcOrd="0" destOrd="0" parTransId="{237FFECA-33D1-441B-A0A8-005D4B4F0C56}" sibTransId="{12D7F50A-0155-4C76-9B82-FA9F954969D8}"/>
+    <dgm:cxn modelId="{55A08574-CA90-4B2C-812D-D1494ADD7E01}" type="presOf" srcId="{062D0B72-55BA-4EE6-A882-94DBE663FC5B}" destId="{E8D8917C-AD7E-447C-86EC-4487F7B7ABC7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{708AF154-EAC2-4D78-BFCD-D71E6F3F4296}" type="presOf" srcId="{FB3FF054-1020-4E7C-B123-6D799AE5BDEC}" destId="{A114F0F6-50A6-47DB-A71D-96B80FC03837}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DAB451C1-CEF5-401C-81AA-9968634B4D71}" type="presOf" srcId="{93BE9C1E-7B83-4E45-B5F3-B8C3341F32F3}" destId="{EDF5A5B1-0EA9-4719-861B-54D49D45BDCD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{9750B78A-8C20-40C3-B431-5BC05916BF2E}" srcId="{93BE9C1E-7B83-4E45-B5F3-B8C3341F32F3}" destId="{0D031844-B473-422E-87D0-673E06F8965F}" srcOrd="0" destOrd="0" parTransId="{DDD740CD-B855-4F49-8E5E-46CC0E6BCE8C}" sibTransId="{7FC5C268-83BB-4D62-B869-D6AC70602A1C}"/>
-    <dgm:cxn modelId="{24FA9B19-28F1-42C4-89C7-4777034E1CAD}" type="presOf" srcId="{7ABF3DC3-4566-4B26-ADF4-DB83AE5DE716}" destId="{077CF7F6-64D2-46B7-BDBE-F0183280E50D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{7B2EB91F-F000-4E65-ACBB-90A88DB9FCD7}" srcId="{0D031844-B473-422E-87D0-673E06F8965F}" destId="{5EBEDAB9-375A-4C4F-91BF-9C9E94AA8F96}" srcOrd="0" destOrd="0" parTransId="{E761A0BE-C51B-45CD-84D9-5EBB738C89BC}" sibTransId="{D2DC94A4-798D-41FF-B55C-75DE77A6D145}"/>
-    <dgm:cxn modelId="{682FA5E4-EE5B-41D1-ACC3-640F51A008AB}" type="presOf" srcId="{27C3F515-112D-4C1E-A365-7CABC5818A95}" destId="{FEE174EF-11A3-466F-BD8C-65CC034A1150}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3142C79B-581F-4FD1-A4E8-C8326666AC1A}" type="presOf" srcId="{237FFECA-33D1-441B-A0A8-005D4B4F0C56}" destId="{CE949C3C-A1AF-4E46-88A4-4DF95E29122B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{63B97FD0-C433-4F22-A59A-FB3DA8B260F5}" srcId="{59B15B56-9035-46AC-B2A4-2814CC3486E0}" destId="{73031B6C-ACD1-4AD0-AE3D-1A2D56308F70}" srcOrd="0" destOrd="0" parTransId="{D87E4642-7941-4D6C-9AE1-D163642DF16F}" sibTransId="{BD6C3FB5-1AE2-4716-99CF-63EBFF0A55CB}"/>
+    <dgm:cxn modelId="{886F383D-BA7B-4C10-891F-7153DB47DC0E}" type="presOf" srcId="{0D031844-B473-422E-87D0-673E06F8965F}" destId="{013E541E-F484-4548-B246-42D67912BF6D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{61202C1B-E484-47A3-AE7A-28EA94989D64}" type="presOf" srcId="{59B15B56-9035-46AC-B2A4-2814CC3486E0}" destId="{13E493C7-BA40-4623-8270-965DA1E0B77C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7D480102-19FC-4F20-8A43-16C28C6353BC}" type="presOf" srcId="{D87E4642-7941-4D6C-9AE1-D163642DF16F}" destId="{4573AA88-D256-46EE-9BDC-293FF653E0A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{6C5CCAF0-4433-4416-8F7A-12FFB30F6237}" type="presOf" srcId="{2DB7EABE-6A61-4F23-912E-4D57F4BFD24D}" destId="{F391135C-32C0-47FA-A18F-AFFD27177B8B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{0B1D26BD-66D3-4FC3-BAE0-E6130F28263F}" type="presOf" srcId="{5EBEDAB9-375A-4C4F-91BF-9C9E94AA8F96}" destId="{C0363490-6C41-493A-A2B1-166931C7EF16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{8DFB0BC1-5E80-4E8C-85C4-DF5B319E3D1D}" srcId="{73031B6C-ACD1-4AD0-AE3D-1A2D56308F70}" destId="{2DB7EABE-6A61-4F23-912E-4D57F4BFD24D}" srcOrd="0" destOrd="0" parTransId="{BBDA34DD-83E9-4C49-811A-E62F99173A48}" sibTransId="{833FE662-47DD-4731-B5B4-B3947256D1D1}"/>
-    <dgm:cxn modelId="{B03DACC1-3E68-4DE2-B563-B059677C6C61}" type="presOf" srcId="{BBDA34DD-83E9-4C49-811A-E62F99173A48}" destId="{3B31711F-1156-4592-AAFD-F1097D8A4356}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{61202C1B-E484-47A3-AE7A-28EA94989D64}" type="presOf" srcId="{59B15B56-9035-46AC-B2A4-2814CC3486E0}" destId="{13E493C7-BA40-4623-8270-965DA1E0B77C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7B2EB91F-F000-4E65-ACBB-90A88DB9FCD7}" srcId="{0D031844-B473-422E-87D0-673E06F8965F}" destId="{5EBEDAB9-375A-4C4F-91BF-9C9E94AA8F96}" srcOrd="0" destOrd="0" parTransId="{E761A0BE-C51B-45CD-84D9-5EBB738C89BC}" sibTransId="{D2DC94A4-798D-41FF-B55C-75DE77A6D145}"/>
+    <dgm:cxn modelId="{1D52142F-47EE-450B-A0E0-AD820967C365}" type="presOf" srcId="{BBDA34DD-83E9-4C49-811A-E62F99173A48}" destId="{97334260-A611-47E3-8D01-8A7C6C38B94D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{4D24B3DC-5F88-4660-9CC6-671C8E65F491}" type="presOf" srcId="{E761A0BE-C51B-45CD-84D9-5EBB738C89BC}" destId="{3C94D170-C554-4CCD-A964-14ADEB92B718}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{708AF154-EAC2-4D78-BFCD-D71E6F3F4296}" type="presOf" srcId="{FB3FF054-1020-4E7C-B123-6D799AE5BDEC}" destId="{A114F0F6-50A6-47DB-A71D-96B80FC03837}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{1D52142F-47EE-450B-A0E0-AD820967C365}" type="presOf" srcId="{BBDA34DD-83E9-4C49-811A-E62F99173A48}" destId="{97334260-A611-47E3-8D01-8A7C6C38B94D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{BE1735D6-33F0-4EF5-9C67-529536EDE80D}" type="presOf" srcId="{73031B6C-ACD1-4AD0-AE3D-1A2D56308F70}" destId="{CDA5F70B-4777-4FC4-910A-495B0149CF12}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{6660B599-2FEA-470D-85E7-CF0A5ECE39FD}" type="presOf" srcId="{237FFECA-33D1-441B-A0A8-005D4B4F0C56}" destId="{7E5F4A25-6D6D-4C93-B5FA-D71C042944BB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{63B97FD0-C433-4F22-A59A-FB3DA8B260F5}" srcId="{59B15B56-9035-46AC-B2A4-2814CC3486E0}" destId="{73031B6C-ACD1-4AD0-AE3D-1A2D56308F70}" srcOrd="0" destOrd="0" parTransId="{D87E4642-7941-4D6C-9AE1-D163642DF16F}" sibTransId="{BD6C3FB5-1AE2-4716-99CF-63EBFF0A55CB}"/>
-    <dgm:cxn modelId="{7D480102-19FC-4F20-8A43-16C28C6353BC}" type="presOf" srcId="{D87E4642-7941-4D6C-9AE1-D163642DF16F}" destId="{4573AA88-D256-46EE-9BDC-293FF653E0A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{775790CF-07B0-430B-A3EA-4B47A2BFF185}" type="presOf" srcId="{E761A0BE-C51B-45CD-84D9-5EBB738C89BC}" destId="{5A6B521B-0B51-4CB8-9C53-62987733920F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{DAB451C1-CEF5-401C-81AA-9968634B4D71}" type="presOf" srcId="{93BE9C1E-7B83-4E45-B5F3-B8C3341F32F3}" destId="{EDF5A5B1-0EA9-4719-861B-54D49D45BDCD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A901170F-B8D3-4B40-A2AE-5412A6083B8A}" srcId="{0D031844-B473-422E-87D0-673E06F8965F}" destId="{59B15B56-9035-46AC-B2A4-2814CC3486E0}" srcOrd="1" destOrd="0" parTransId="{7ABF3DC3-4566-4B26-ADF4-DB83AE5DE716}" sibTransId="{DE6251E7-1517-4670-A003-45472D4862A5}"/>
-    <dgm:cxn modelId="{3142C79B-581F-4FD1-A4E8-C8326666AC1A}" type="presOf" srcId="{237FFECA-33D1-441B-A0A8-005D4B4F0C56}" destId="{CE949C3C-A1AF-4E46-88A4-4DF95E29122B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{93849FA5-DA6B-4488-BBF0-D5308F553883}" srcId="{0D031844-B473-422E-87D0-673E06F8965F}" destId="{062D0B72-55BA-4EE6-A882-94DBE663FC5B}" srcOrd="2" destOrd="0" parTransId="{FB3FF054-1020-4E7C-B123-6D799AE5BDEC}" sibTransId="{3249F69A-E34A-47CB-8F54-F5563F9168FF}"/>
-    <dgm:cxn modelId="{886F383D-BA7B-4C10-891F-7153DB47DC0E}" type="presOf" srcId="{0D031844-B473-422E-87D0-673E06F8965F}" destId="{013E541E-F484-4548-B246-42D67912BF6D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{61B19E3E-F37A-4DD3-B0E8-E43FCC33107D}" type="presOf" srcId="{7ABF3DC3-4566-4B26-ADF4-DB83AE5DE716}" destId="{64D1D5D8-0A0F-4DC3-BE50-5B282209B512}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{55A08574-CA90-4B2C-812D-D1494ADD7E01}" type="presOf" srcId="{062D0B72-55BA-4EE6-A882-94DBE663FC5B}" destId="{E8D8917C-AD7E-447C-86EC-4487F7B7ABC7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{8C9E8D81-F885-4984-9DCB-7A810F99A069}" type="presParOf" srcId="{EDF5A5B1-0EA9-4719-861B-54D49D45BDCD}" destId="{2223336A-1FDF-48FC-A750-61D73C22C206}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B02A7F5C-EB56-4D47-8934-202748BC769D}" type="presParOf" srcId="{2223336A-1FDF-48FC-A750-61D73C22C206}" destId="{013E541E-F484-4548-B246-42D67912BF6D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{F47125F2-1121-4C57-B6C9-A4319B6858C9}" type="presParOf" srcId="{2223336A-1FDF-48FC-A750-61D73C22C206}" destId="{F45475F3-E076-4690-AE1F-2BC352013065}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -2410,8 +2497,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="642" y="1413791"/>
-          <a:ext cx="878983" cy="439491"/>
+          <a:off x="1428" y="951904"/>
+          <a:ext cx="878681" cy="439340"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2478,8 +2565,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13514" y="1426663"/>
-        <a:ext cx="853239" cy="413747"/>
+        <a:off x="14296" y="964772"/>
+        <a:ext cx="852945" cy="413604"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5A6B521B-0B51-4CB8-9C53-62987733920F}">
@@ -2489,8 +2576,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="18289469">
-          <a:off x="747582" y="1368722"/>
-          <a:ext cx="615680" cy="24213"/>
+          <a:off x="748111" y="902079"/>
+          <a:ext cx="615469" cy="33750"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2501,10 +2588,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="12106"/>
+                <a:pt x="0" y="16875"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="615680" y="12106"/>
+                <a:pt x="615469" y="16875"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2558,8 +2645,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1040031" y="1365437"/>
-        <a:ext cx="30784" cy="30784"/>
+        <a:off x="1040459" y="903567"/>
+        <a:ext cx="30773" cy="30773"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C0363490-6C41-493A-A2B1-166931C7EF16}">
@@ -2569,8 +2656,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1231219" y="908376"/>
-          <a:ext cx="878983" cy="439491"/>
+          <a:off x="1231582" y="446662"/>
+          <a:ext cx="878681" cy="439340"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2637,8 +2724,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1244091" y="921248"/>
-        <a:ext cx="853239" cy="413747"/>
+        <a:off x="1244450" y="459530"/>
+        <a:ext cx="852945" cy="413604"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{64D1D5D8-0A0F-4DC3-BE50-5B282209B512}">
@@ -2648,8 +2735,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="879626" y="1621430"/>
-          <a:ext cx="351593" cy="24213"/>
+          <a:off x="880109" y="1154700"/>
+          <a:ext cx="351472" cy="33750"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2660,10 +2747,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="12106"/>
+                <a:pt x="0" y="16875"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="351593" y="12106"/>
+                <a:pt x="351472" y="16875"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2717,8 +2804,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1046633" y="1624747"/>
-        <a:ext cx="17579" cy="17579"/>
+        <a:off x="1047059" y="1162788"/>
+        <a:ext cx="17573" cy="17573"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{13E493C7-BA40-4623-8270-965DA1E0B77C}">
@@ -2728,8 +2815,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1231219" y="1413791"/>
-          <a:ext cx="878983" cy="439491"/>
+          <a:off x="1231582" y="951904"/>
+          <a:ext cx="878681" cy="439340"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2796,8 +2883,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1244091" y="1426663"/>
-        <a:ext cx="853239" cy="413747"/>
+        <a:off x="1244450" y="964772"/>
+        <a:ext cx="852945" cy="413604"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4573AA88-D256-46EE-9BDC-293FF653E0A1}">
@@ -2807,8 +2894,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="18838003">
-          <a:off x="2048106" y="1475257"/>
-          <a:ext cx="406180" cy="24213"/>
+          <a:off x="2048188" y="1008577"/>
+          <a:ext cx="406040" cy="33750"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2819,10 +2906,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="12106"/>
+                <a:pt x="0" y="16875"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="406180" y="12106"/>
+                <a:pt x="406040" y="16875"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2876,8 +2963,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2241042" y="1477210"/>
-        <a:ext cx="20309" cy="20309"/>
+        <a:off x="2241057" y="1015301"/>
+        <a:ext cx="20302" cy="20302"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CDA5F70B-4777-4FC4-910A-495B0149CF12}">
@@ -2887,8 +2974,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2392190" y="1121446"/>
-          <a:ext cx="878983" cy="439491"/>
+          <a:off x="2392153" y="659659"/>
+          <a:ext cx="878681" cy="439340"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2955,8 +3042,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2405062" y="1134318"/>
-        <a:ext cx="853239" cy="413747"/>
+        <a:off x="2405021" y="672527"/>
+        <a:ext cx="852945" cy="413604"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3B31711F-1156-4592-AAFD-F1097D8A4356}">
@@ -2966,8 +3053,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="2085819">
-          <a:off x="3225416" y="1475257"/>
-          <a:ext cx="512713" cy="24213"/>
+          <a:off x="3225093" y="1008577"/>
+          <a:ext cx="512537" cy="33750"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2978,10 +3065,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="12106"/>
+                <a:pt x="0" y="16875"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="512713" y="12106"/>
+                <a:pt x="512537" y="16875"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3035,8 +3122,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3468955" y="1474546"/>
-        <a:ext cx="25635" cy="25635"/>
+        <a:off x="3468548" y="1012639"/>
+        <a:ext cx="25626" cy="25626"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F391135C-32C0-47FA-A18F-AFFD27177B8B}">
@@ -3046,8 +3133,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3692373" y="1413791"/>
-          <a:ext cx="878983" cy="439491"/>
+          <a:off x="3691890" y="951904"/>
+          <a:ext cx="878681" cy="439340"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3114,8 +3201,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3705245" y="1426663"/>
-        <a:ext cx="853239" cy="413747"/>
+        <a:off x="3704758" y="964772"/>
+        <a:ext cx="852945" cy="413604"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{ABC9673B-9A2D-4453-A6DC-80A2B01FC054}">
@@ -3125,8 +3212,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="3310531">
-          <a:off x="747582" y="1874138"/>
-          <a:ext cx="615680" cy="24213"/>
+          <a:off x="748111" y="1407320"/>
+          <a:ext cx="615469" cy="33750"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3137,10 +3224,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="12106"/>
+                <a:pt x="0" y="16875"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="615680" y="12106"/>
+                <a:pt x="615469" y="16875"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3194,8 +3281,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1040031" y="1870853"/>
-        <a:ext cx="30784" cy="30784"/>
+        <a:off x="1040459" y="1408809"/>
+        <a:ext cx="30773" cy="30773"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E8D8917C-AD7E-447C-86EC-4487F7B7ABC7}">
@@ -3205,8 +3292,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1231219" y="1919207"/>
-          <a:ext cx="878983" cy="439491"/>
+          <a:off x="1231582" y="1457146"/>
+          <a:ext cx="878681" cy="439340"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3273,8 +3360,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1244091" y="1932079"/>
-        <a:ext cx="853239" cy="413747"/>
+        <a:off x="1244450" y="1470014"/>
+        <a:ext cx="852945" cy="413604"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CE949C3C-A1AF-4E46-88A4-4DF95E29122B}">
@@ -3284,8 +3371,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="19102493">
-          <a:off x="2062578" y="2001555"/>
-          <a:ext cx="377236" cy="24213"/>
+          <a:off x="2062655" y="1534694"/>
+          <a:ext cx="377106" cy="33750"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3296,10 +3383,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="12106"/>
+                <a:pt x="0" y="16875"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="377236" y="12106"/>
+                <a:pt x="377106" y="16875"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3353,8 +3440,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2241765" y="2004231"/>
-        <a:ext cx="18861" cy="18861"/>
+        <a:off x="2241780" y="1542141"/>
+        <a:ext cx="18855" cy="18855"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FEE174EF-11A3-466F-BD8C-65CC034A1150}">
@@ -3364,8 +3451,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2392190" y="1668626"/>
-          <a:ext cx="878983" cy="439491"/>
+          <a:off x="2392153" y="1206651"/>
+          <a:ext cx="878681" cy="439340"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3432,8 +3519,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2405062" y="1681498"/>
-        <a:ext cx="853239" cy="413747"/>
+        <a:off x="2405021" y="1219519"/>
+        <a:ext cx="852945" cy="413604"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -4800,13 +4887,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>371475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3514725</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4830,13 +4917,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>857250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1323975</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>1057275</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4879,13 +4966,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>1381125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>1647825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4928,13 +5015,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2171700</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2676525</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>1609725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4977,13 +5064,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>1085850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>1866900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5026,13 +5113,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>857250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>1590675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5069,6 +5156,138 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>17004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4400551</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3272803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009776" y="15142704"/>
+          <a:ext cx="4381500" cy="3255799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3209925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>2536237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="19535775"/>
+          <a:ext cx="3209925" cy="2536237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6748</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4286249</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>3179078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1997473" y="23193374"/>
+          <a:ext cx="4279501" cy="3160029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5371,10 +5590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B252"/>
+  <dimension ref="A1:B245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5385,23 +5604,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -5409,7 +5628,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -5425,7 +5644,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -5433,20 +5652,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -5457,7 +5676,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="264" x14ac:dyDescent="0.25">
@@ -5465,7 +5684,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -5473,7 +5692,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -5481,7 +5700,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -5489,68 +5708,68 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="27"/>
     </row>
     <row r="16" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="17"/>
+      <c r="A16" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="34"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="27"/>
     </row>
     <row r="21" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" s="18"/>
+      <c r="A21" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="31"/>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="27"/>
     </row>
     <row r="23" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="18"/>
+      <c r="A23" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="31"/>
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -5569,23 +5788,23 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
     </row>
     <row r="28" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -5593,43 +5812,43 @@
         <v>23</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="27"/>
     </row>
     <row r="31" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B31" s="18"/>
+      <c r="A31" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" s="31"/>
     </row>
     <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="27"/>
     </row>
     <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B33" s="18"/>
+      <c r="A33" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" s="31"/>
     </row>
     <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
     </row>
     <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -5637,7 +5856,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -5645,27 +5864,25 @@
         <v>28</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="261" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
     </row>
     <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -5673,7 +5890,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5681,27 +5898,25 @@
         <v>28</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>214</v>
-      </c>
+      <c r="B43" s="13"/>
     </row>
     <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
     </row>
     <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5709,121 +5924,125 @@
         <v>27</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="258" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>214</v>
-      </c>
+      <c r="B48" s="13"/>
     </row>
     <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="16"/>
     </row>
     <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>224</v>
-      </c>
+      <c r="A50" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="20"/>
     </row>
     <row r="51" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>225</v>
-      </c>
+      <c r="A51" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="16"/>
     </row>
     <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>226</v>
+      <c r="A52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>214</v>
+      <c r="A53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="32"/>
+      <c r="A54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>227</v>
+      <c r="A55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="33" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>229</v>
+      <c r="A56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>214</v>
+      <c r="A58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" s="21"/>
-    </row>
-    <row r="60" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="B60" s="23"/>
+      <c r="A59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="21"/>
+      <c r="A61" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="16"/>
     </row>
     <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -5831,39 +6050,39 @@
         <v>32</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>86</v>
+      <c r="B67" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -5871,7 +6090,7 @@
         <v>37</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -5879,29 +6098,29 @@
         <v>38</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="21"/>
+      <c r="B71" s="16"/>
     </row>
     <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -5909,7 +6128,7 @@
         <v>32</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
@@ -5917,7 +6136,7 @@
         <v>33</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -5925,15 +6144,15 @@
         <v>34</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -5941,15 +6160,15 @@
         <v>36</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>83</v>
+      <c r="B78" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -5957,29 +6176,29 @@
         <v>38</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="21"/>
+      <c r="B81" s="16"/>
     </row>
     <row r="82" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -5987,15 +6206,15 @@
         <v>32</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -6003,15 +6222,15 @@
         <v>34</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6019,15 +6238,15 @@
         <v>36</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>95</v>
+      <c r="B88" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6035,29 +6254,29 @@
         <v>38</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="21"/>
+      <c r="B91" s="16"/>
     </row>
     <row r="92" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6065,7 +6284,7 @@
         <v>32</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -6073,7 +6292,7 @@
         <v>33</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -6081,15 +6300,15 @@
         <v>34</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6097,7 +6316,7 @@
         <v>36</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6105,7 +6324,7 @@
         <v>37</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6113,29 +6332,29 @@
         <v>38</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B101" s="21"/>
+      <c r="B101" s="16"/>
     </row>
     <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6143,7 +6362,7 @@
         <v>32</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -6151,7 +6370,7 @@
         <v>33</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -6159,15 +6378,15 @@
         <v>34</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6175,7 +6394,7 @@
         <v>36</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6183,7 +6402,7 @@
         <v>37</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6191,140 +6410,138 @@
         <v>38</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B111" s="21"/>
-    </row>
-    <row r="112" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="A111" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" s="16"/>
+    </row>
+    <row r="112" spans="1:2" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" s="22"/>
     </row>
     <row r="113" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="33" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="A113" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B113" s="16"/>
+    </row>
+    <row r="114" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="20"/>
+    </row>
+    <row r="115" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="33" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>118</v>
+      <c r="B116" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>174</v>
+        <v>29</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>117</v>
+        <v>44</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B121" s="21"/>
+      <c r="A121" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="122" spans="1:2" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="B122" s="34"/>
+      <c r="A122" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="123" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B123" s="21"/>
+      <c r="A123" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="B124" s="23"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="16"/>
     </row>
     <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="33" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6333,59 +6550,59 @@
         <v>43</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+    <row r="133" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="20"/>
-      <c r="B134" s="21"/>
+      <c r="A134" s="15"/>
+      <c r="B134" s="16"/>
     </row>
     <row r="135" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6393,7 +6610,7 @@
         <v>33</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6404,12 +6621,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6417,15 +6634,15 @@
         <v>32</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6433,7 +6650,7 @@
         <v>46</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6441,7 +6658,7 @@
         <v>37</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -6449,19 +6666,19 @@
         <v>47</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
-      <c r="B144" s="21"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="16"/>
     </row>
     <row r="145" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6469,7 +6686,7 @@
         <v>33</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6485,7 +6702,7 @@
         <v>43</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6493,15 +6710,15 @@
         <v>32</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6509,7 +6726,7 @@
         <v>46</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6517,7 +6734,7 @@
         <v>37</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -6525,27 +6742,27 @@
         <v>47</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="20"/>
-      <c r="B154" s="21"/>
+      <c r="A154" s="15"/>
+      <c r="B154" s="16"/>
     </row>
     <row r="155" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6561,7 +6778,7 @@
         <v>43</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6569,15 +6786,15 @@
         <v>32</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6585,7 +6802,7 @@
         <v>46</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6593,7 +6810,7 @@
         <v>37</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -6601,27 +6818,27 @@
         <v>47</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
-      <c r="B164" s="21"/>
+      <c r="A164" s="15"/>
+      <c r="B164" s="16"/>
     </row>
     <row r="165" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6632,12 +6849,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6645,15 +6862,15 @@
         <v>32</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6661,7 +6878,7 @@
         <v>46</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6669,7 +6886,7 @@
         <v>37</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -6677,19 +6894,19 @@
         <v>47</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="20"/>
-      <c r="B174" s="21"/>
+      <c r="A174" s="15"/>
+      <c r="B174" s="16"/>
     </row>
     <row r="175" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6697,7 +6914,7 @@
         <v>33</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6713,7 +6930,7 @@
         <v>43</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6721,15 +6938,15 @@
         <v>32</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6737,7 +6954,7 @@
         <v>46</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6745,7 +6962,7 @@
         <v>37</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -6753,43 +6970,39 @@
         <v>47</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="20"/>
-      <c r="B184" s="21"/>
+      <c r="A184" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B184" s="16"/>
     </row>
     <row r="185" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="A185" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B185" s="24"/>
     </row>
     <row r="186" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="A186" s="25"/>
+      <c r="B186" s="26"/>
     </row>
     <row r="187" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="33" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="s">
-        <v>43</v>
+      <c r="A188" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6797,497 +7010,377 @@
         <v>32</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>167</v>
+        <v>29</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B192" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="33" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="B193" s="5" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B194" s="21"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B195" s="25"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="26"/>
-      <c r="B196" s="27"/>
+      <c r="A194" s="15"/>
+      <c r="B194" s="16"/>
+    </row>
+    <row r="195" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="197" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>176</v>
+        <v>29</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B199" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B199" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="A202" s="15"/>
+      <c r="B202" s="16"/>
     </row>
     <row r="203" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="20"/>
-      <c r="B204" s="21"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="205" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>179</v>
+        <v>29</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
-        <v>32</v>
+      <c r="A207" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>50</v>
+      <c r="A208" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B209" s="10" t="s">
-        <v>181</v>
+      <c r="A209" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>182</v>
-      </c>
+      <c r="A210" s="15"/>
+      <c r="B210" s="16"/>
     </row>
     <row r="211" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A212" s="20"/>
-      <c r="B212" s="21"/>
+      <c r="A212" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="213" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>184</v>
+        <v>29</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="5" t="s">
-        <v>44</v>
+      <c r="A217" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>182</v>
-      </c>
+      <c r="A218" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B218" s="16"/>
     </row>
     <row r="219" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="A219" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B219" s="20"/>
     </row>
     <row r="220" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="20"/>
-      <c r="B220" s="21"/>
+      <c r="A220" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B220" s="16"/>
     </row>
     <row r="221" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>186</v>
-      </c>
+      <c r="A221" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B221" s="20"/>
     </row>
     <row r="222" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>187</v>
-      </c>
+      <c r="A222" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B222" s="16"/>
     </row>
     <row r="223" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>188</v>
-      </c>
+      <c r="A223" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B223" s="20"/>
     </row>
     <row r="224" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A224" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B224" s="16"/>
     </row>
     <row r="225" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>189</v>
-      </c>
+      <c r="A225" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B225" s="20"/>
     </row>
     <row r="226" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>190</v>
-      </c>
+      <c r="A226" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B226" s="16"/>
     </row>
     <row r="227" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="A227" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B227" s="20"/>
     </row>
     <row r="228" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B228" s="21"/>
+      <c r="A228" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B228" s="16"/>
     </row>
     <row r="229" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B229" s="23"/>
+      <c r="A229" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" s="20"/>
     </row>
     <row r="230" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B230" s="21"/>
+      <c r="A230" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B230" s="16"/>
     </row>
     <row r="231" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B231" s="23"/>
+      <c r="A231" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" s="20"/>
     </row>
     <row r="232" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B232" s="21"/>
+      <c r="A232" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B232" s="16"/>
     </row>
     <row r="233" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B233" s="23"/>
+      <c r="A233" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B233" s="18"/>
     </row>
     <row r="234" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B234" s="21"/>
+      <c r="A234" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B234" s="18"/>
     </row>
     <row r="235" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B235" s="23"/>
+      <c r="A235" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B235" s="16"/>
     </row>
     <row r="236" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B236" s="21"/>
+      <c r="A236" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="237" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="22" t="s">
+      <c r="A237" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B239" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="B240" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="B237" s="23"/>
-    </row>
-    <row r="238" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B238" s="21"/>
-    </row>
-    <row r="239" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A239" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B239" s="23"/>
-    </row>
-    <row r="240" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B240" s="21"/>
-    </row>
-    <row r="241" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="B241" s="23"/>
-    </row>
-    <row r="242" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B242" s="21"/>
-    </row>
-    <row r="243" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A243" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="B243" s="23"/>
-    </row>
-    <row r="244" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B244" s="21"/>
-    </row>
-    <row r="245" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B245" s="29"/>
-    </row>
-    <row r="246" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A246" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B246" s="29"/>
-    </row>
-    <row r="247" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A247" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B247" s="21"/>
-    </row>
-    <row r="248" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A249" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-    </row>
+    </row>
+    <row r="242" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="A195:B196"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
+  <mergeCells count="58">
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -7295,12 +7388,66 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="A185:B186"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A114:B114"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B239" r:id="rId2"/>
+    <hyperlink ref="B240" r:id="rId3"/>
+    <hyperlink ref="B241" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>